--- a/teste/VR_MENSAL_05_2025.xlsx
+++ b/teste/VR_MENSAL_05_2025.xlsx
@@ -3307,18 +3307,10 @@
       <c r="E72" t="n">
         <v>21</v>
       </c>
-      <c r="F72" t="n">
-        <v>35</v>
-      </c>
-      <c r="G72" t="n">
-        <v>735</v>
-      </c>
-      <c r="H72" t="n">
-        <v>588</v>
-      </c>
-      <c r="I72" t="n">
-        <v>147</v>
-      </c>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr">
         <is>
           <t>VR MENSAL MAIO/2025</t>
@@ -3347,18 +3339,10 @@
       <c r="E73" t="n">
         <v>21</v>
       </c>
-      <c r="F73" t="n">
-        <v>35</v>
-      </c>
-      <c r="G73" t="n">
-        <v>735</v>
-      </c>
-      <c r="H73" t="n">
-        <v>588</v>
-      </c>
-      <c r="I73" t="n">
-        <v>147</v>
-      </c>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr">
         <is>
           <t>VR MENSAL MAIO/2025</t>
@@ -3387,18 +3371,10 @@
       <c r="E74" t="n">
         <v>21</v>
       </c>
-      <c r="F74" t="n">
-        <v>35</v>
-      </c>
-      <c r="G74" t="n">
-        <v>735</v>
-      </c>
-      <c r="H74" t="n">
-        <v>588</v>
-      </c>
-      <c r="I74" t="n">
-        <v>147</v>
-      </c>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr">
         <is>
           <t>VR MENSAL MAIO/2025</t>

--- a/teste/VR_MENSAL_05_2025.xlsx
+++ b/teste/VR_MENSAL_05_2025.xlsx
@@ -3307,10 +3307,18 @@
       <c r="E72" t="n">
         <v>21</v>
       </c>
-      <c r="F72" t="inlineStr"/>
-      <c r="G72" t="inlineStr"/>
-      <c r="H72" t="inlineStr"/>
-      <c r="I72" t="inlineStr"/>
+      <c r="F72" t="n">
+        <v>35</v>
+      </c>
+      <c r="G72" t="n">
+        <v>735</v>
+      </c>
+      <c r="H72" t="n">
+        <v>588</v>
+      </c>
+      <c r="I72" t="n">
+        <v>147</v>
+      </c>
       <c r="J72" t="inlineStr">
         <is>
           <t>VR MENSAL MAIO/2025</t>
@@ -3339,10 +3347,18 @@
       <c r="E73" t="n">
         <v>21</v>
       </c>
-      <c r="F73" t="inlineStr"/>
-      <c r="G73" t="inlineStr"/>
-      <c r="H73" t="inlineStr"/>
-      <c r="I73" t="inlineStr"/>
+      <c r="F73" t="n">
+        <v>35</v>
+      </c>
+      <c r="G73" t="n">
+        <v>735</v>
+      </c>
+      <c r="H73" t="n">
+        <v>588</v>
+      </c>
+      <c r="I73" t="n">
+        <v>147</v>
+      </c>
       <c r="J73" t="inlineStr">
         <is>
           <t>VR MENSAL MAIO/2025</t>
@@ -3371,10 +3387,18 @@
       <c r="E74" t="n">
         <v>21</v>
       </c>
-      <c r="F74" t="inlineStr"/>
-      <c r="G74" t="inlineStr"/>
-      <c r="H74" t="inlineStr"/>
-      <c r="I74" t="inlineStr"/>
+      <c r="F74" t="n">
+        <v>35</v>
+      </c>
+      <c r="G74" t="n">
+        <v>735</v>
+      </c>
+      <c r="H74" t="n">
+        <v>588</v>
+      </c>
+      <c r="I74" t="n">
+        <v>147</v>
+      </c>
       <c r="J74" t="inlineStr">
         <is>
           <t>VR MENSAL MAIO/2025</t>
